--- a/data/trans_camb/P16-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16-Clase-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>10.55460851596797</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12.72348064427619</v>
+        <v>12.7234806442762</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.050588780628653</v>
@@ -655,7 +655,7 @@
         <v>1.28409687206863</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.761611088549865</v>
+        <v>3.761611088549854</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.240450035263074</v>
@@ -664,7 +664,7 @@
         <v>7.048110505631628</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>9.419705654566506</v>
+        <v>9.419705654566519</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5589007645796631</v>
+        <v>0.2480845959854346</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.463939743456459</v>
+        <v>3.939117157319335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.203239431480522</v>
+        <v>6.1333864846331</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.251573884552941</v>
+        <v>-0.8706056067077004</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.902500856054429</v>
+        <v>-6.073203171154195</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.316899820990641</v>
+        <v>-3.7884637663634</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.742698306183801</v>
+        <v>2.081036986932503</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.535575478726917</v>
+        <v>1.923183958836965</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.690086636382103</v>
+        <v>4.514213695550148</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.0404678937349</v>
+        <v>13.4085703697659</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.23937891012823</v>
+        <v>17.91919429911731</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.86782953529924</v>
+        <v>19.0695225454482</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.89266167751825</v>
+        <v>15.07068676903356</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.790093745797227</v>
+        <v>8.955867949770754</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.43698193649849</v>
+        <v>10.45974037567785</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>12.55306517909623</v>
+        <v>12.36285707415828</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.1005122884781</v>
+        <v>12.73244518399425</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.30891484829634</v>
+        <v>14.17926415378709</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.2493579962965862</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3005987038339846</v>
+        <v>0.3005987038339849</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1302932448739576</v>
@@ -760,7 +760,7 @@
         <v>0.02372981227525273</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06951370019303862</v>
+        <v>0.06951370019303842</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1541883457597327</v>
@@ -769,7 +769,7 @@
         <v>0.1500923967850637</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.2005964857636696</v>
+        <v>0.2005964857636698</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.0108116204992675</v>
+        <v>0.004338566376631318</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07652259240806185</v>
+        <v>0.08723812769911854</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1319157843440075</v>
+        <v>0.1331723227848334</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02056991142253608</v>
+        <v>-0.01419357893957796</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1171528979051937</v>
+        <v>-0.1051581074881757</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05580668649354333</v>
+        <v>-0.06495667875609694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03479444491156586</v>
+        <v>0.045708607173565</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03316466136702496</v>
+        <v>0.03973620516754326</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09281149794888581</v>
+        <v>0.0860784406297363</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3635644933451737</v>
+        <v>0.3423955257697858</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4478474434863392</v>
+        <v>0.4656754831052397</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4841018247026052</v>
+        <v>0.4847267123343681</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.294061810174691</v>
+        <v>0.3090055814990929</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1727719789929091</v>
+        <v>0.1778801325960306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2107714551009847</v>
+        <v>0.2082980301781354</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2774687626565611</v>
+        <v>0.2863228155698432</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2741341595968712</v>
+        <v>0.2915963879671977</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.3193422878684812</v>
+        <v>0.3156726717353492</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>6.566178025581292</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.1107084292117</v>
+        <v>9.110708429211689</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.807283840536998</v>
+        <v>2.649111282407965</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.701480745130765</v>
+        <v>2.237442183410518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.948345370947327</v>
+        <v>6.645721584419906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.304525395396349</v>
+        <v>2.765302638709891</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.269364204155493</v>
+        <v>-4.251349309177051</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.656278843488138</v>
+        <v>-1.864521990374653</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.64696581221529</v>
+        <v>4.327637674518565</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.098241737936047</v>
+        <v>1.247350404078241</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.964670284885355</v>
+        <v>4.503738582472002</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.37206055595055</v>
+        <v>18.09396659169552</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.25285134880175</v>
+        <v>17.66329534563239</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.07244021539354</v>
+        <v>21.48181581665882</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.71500689279348</v>
+        <v>17.4690660060184</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.05972803646461</v>
+        <v>9.831674542453404</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.9641213256818</v>
+        <v>11.1501205420999</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>14.99277839038126</v>
+        <v>15.01763189806698</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.97207134467723</v>
+        <v>12.1420954174754</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>14.10497300125825</v>
+        <v>13.98676517191982</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1409270930862682</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1955392695542549</v>
+        <v>0.1955392695542547</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.06795646472918811</v>
+        <v>0.06016812068823432</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06060625118184777</v>
+        <v>0.04749618909267013</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1583158764906241</v>
+        <v>0.1469455109846183</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04041773455543109</v>
+        <v>0.04757920858321937</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.07494886736223833</v>
+        <v>-0.07554136127157011</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04468801310353026</v>
+        <v>-0.03043960540484368</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09335181644273612</v>
+        <v>0.09063346275966465</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02313316633792344</v>
+        <v>0.02719395359153809</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.08307677419865912</v>
+        <v>0.09221041520216652</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.484967803400504</v>
+        <v>0.4999536140790529</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4960212212652013</v>
+        <v>0.4976474232283618</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5696875055279826</v>
+        <v>0.5939991262605299</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3575736449535746</v>
+        <v>0.3523201924958342</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2216701525069048</v>
+        <v>0.2031384939567956</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2283340482838881</v>
+        <v>0.2251758619013202</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3428226163120915</v>
+        <v>0.3390988268393658</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2650754421777236</v>
+        <v>0.2760681817553433</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3255999619993541</v>
+        <v>0.322265697451344</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>14.98941502097109</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16.3556618374605</v>
+        <v>16.35566183746049</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>13.41230348391939</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.890663904432085</v>
+        <v>9.091548100814368</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.912899308081169</v>
+        <v>7.893236374652197</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.05262258660258</v>
+        <v>10.67390089531049</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.7087003226333</v>
+        <v>3.069065012295183</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.980130717459312</v>
+        <v>5.914833590616872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>9.445741670146109</v>
+        <v>9.266231207852693</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.31317096385179</v>
+        <v>9.941832554083804</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>9.260159439977432</v>
+        <v>9.988969095144487</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>12.27192482563809</v>
+        <v>11.93263434705674</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>20.34630736936556</v>
+        <v>20.65714708136888</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>21.29900217429073</v>
+        <v>20.62960190992413</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.71855614273209</v>
+        <v>23.38179439308188</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.22716393758105</v>
+        <v>22.75321402584682</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>26.24781599942965</v>
+        <v>26.34057793026466</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.53061197255826</v>
+        <v>27.97527065365237</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>20.3453724964197</v>
+        <v>20.2784013716021</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>20.14015429571027</v>
+        <v>20.753889614173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>22.63698411268811</v>
+        <v>22.89151027099426</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.3672838336974873</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.400760815143072</v>
+        <v>0.4007608151430718</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2483737462830418</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2080108417508527</v>
+        <v>0.2108767535690981</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2025480983852939</v>
+        <v>0.1789931730036838</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2330483840889013</v>
+        <v>0.2395849371018904</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.06075339991631071</v>
+        <v>0.05233949576896717</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08457823188515885</v>
+        <v>0.1029068307014225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1535003849166765</v>
+        <v>0.1515940404643006</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2144786560179449</v>
+        <v>0.2124119011367684</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2058758577863407</v>
+        <v>0.2126011198714416</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2670335284762084</v>
+        <v>0.2647464550108495</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5423273871571213</v>
+        <v>0.5572398982944233</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.581236768690808</v>
+        <v>0.5547642625843393</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6071614153685601</v>
+        <v>0.6115358245329126</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4883384904425711</v>
+        <v>0.4831276519949876</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.558703650464748</v>
+        <v>0.5383065841308892</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5719312593855123</v>
+        <v>0.5900682586969216</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4973163457022633</v>
+        <v>0.4930372408147112</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5025647273963871</v>
+        <v>0.5062538178144477</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5577910003647644</v>
+        <v>0.5641634322893219</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>6.303075777005124</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>10.25199543102849</v>
+        <v>10.2519954310285</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.315093475243855</v>
+        <v>3.168132263795176</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.856160820126294</v>
+        <v>2.761910125964278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5.774188415248779</v>
+        <v>6.104673452979383</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.240505870601162</v>
+        <v>9.031123813809396</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.464596708266105</v>
+        <v>-0.8650472260504061</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.954593034996996</v>
+        <v>4.449459530529069</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.766522526412605</v>
+        <v>7.209697037199571</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.339542939807771</v>
+        <v>3.055618893005201</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>6.947503775176601</v>
+        <v>6.677726696734948</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.6318974694974</v>
+        <v>12.12793682294216</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.79144042598444</v>
+        <v>10.94762716858056</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.67882436515606</v>
+        <v>14.58246724766192</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.77335390582872</v>
+        <v>19.06377661907037</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>9.523293747260441</v>
+        <v>9.361003790648603</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>13.44731735099706</v>
+        <v>13.49014427393473</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.46364738252857</v>
+        <v>13.43623442600029</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.788360175667963</v>
+        <v>9.500600925633899</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>13.68776327767842</v>
+        <v>13.37948467844148</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1304378288302667</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2121580118201525</v>
+        <v>0.2121580118201528</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.06788174306242656</v>
+        <v>0.06698118383316211</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06144949489172302</v>
+        <v>0.05677985700301132</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1245070468979384</v>
+        <v>0.1284816242032261</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1465997770758107</v>
+        <v>0.1603376748048857</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02574015865272414</v>
+        <v>-0.01407462809023401</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06991745207620606</v>
+        <v>0.08106500126704282</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1357242956157704</v>
+        <v>0.1432623543686843</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.06688573207267655</v>
+        <v>0.05994235809764629</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1404953074604263</v>
+        <v>0.1350034888395502</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2690682780756689</v>
+        <v>0.2765828751206277</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2511214313563512</v>
+        <v>0.2549706588283693</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3411886479247039</v>
+        <v>0.3359675930266663</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3699626330979316</v>
+        <v>0.3718345683504878</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.186850108753081</v>
+        <v>0.1850916694478426</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2640698758353196</v>
+        <v>0.2636856706356793</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2872758915262736</v>
+        <v>0.2874322133518255</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2111588369153692</v>
+        <v>0.2022393986034388</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2939584610135224</v>
+        <v>0.2879628318930093</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>9.604935282719184</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9.841405920077284</v>
+        <v>9.841405920077273</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>14.06172568899239</v>
@@ -1520,7 +1520,7 @@
         <v>8.46321439791633</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>8.084155628886458</v>
+        <v>8.084155628886446</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.628538011663373</v>
+        <v>2.176681027147064</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.232678601316076</v>
+        <v>2.781721672064606</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.587076415389208</v>
+        <v>2.609039012905198</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9.021090852859839</v>
+        <v>8.973105353376866</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.157546659793306</v>
+        <v>4.997547371645962</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.030192218410428</v>
+        <v>2.092667171499689</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>7.482023717964728</v>
+        <v>7.762424900214278</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.908589828807376</v>
+        <v>4.164052340133336</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.853021851594933</v>
+        <v>3.846729944617975</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.22420014493834</v>
+        <v>16.52848727420682</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.15075347177273</v>
+        <v>16.82743055198009</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.2225479190975</v>
+        <v>16.67612015133457</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.6449779500758</v>
+        <v>19.56772446469175</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>15.70590263794683</v>
+        <v>15.63196385429057</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>12.91405029424007</v>
+        <v>12.4630839395411</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>16.31330946539487</v>
+        <v>16.19437150912571</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.47948852494233</v>
+        <v>13.20294525087031</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.32941067371311</v>
+        <v>12.63465133299981</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2359212497352276</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2417295604264595</v>
+        <v>0.2417295604264593</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2278897949259801</v>
@@ -1625,7 +1625,7 @@
         <v>0.1575611844649285</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1505041791922192</v>
+        <v>0.150504179192219</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08025946656956404</v>
+        <v>0.04976198127826262</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.07034040301175989</v>
+        <v>0.05365867636850434</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.0599746250808664</v>
+        <v>0.06398958372455191</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1362563389345794</v>
+        <v>0.1413319540189462</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08194433989764137</v>
+        <v>0.0772620924655467</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04688073058273207</v>
+        <v>0.03232744734011108</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1330541410675947</v>
+        <v>0.1380227610612307</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07007294113679258</v>
+        <v>0.07389590707111772</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.06875469639469457</v>
+        <v>0.07080041671453305</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.478067737478695</v>
+        <v>0.4550673285131371</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4470305200610694</v>
+        <v>0.4538971833390908</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.471670390905985</v>
+        <v>0.4577119608086516</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3385485230041549</v>
+        <v>0.3386654902675655</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2737788653312311</v>
+        <v>0.2690121445925645</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2228004413589882</v>
+        <v>0.2140899097120741</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3187729614274842</v>
+        <v>0.3184602792469461</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2469509694392955</v>
+        <v>0.2596374623642814</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2432529365426396</v>
+        <v>0.2541099626141832</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>6.701501584543246</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.9264479835560668</v>
+        <v>-0.926447983556089</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.51659122997471</v>
@@ -1734,7 +1734,7 @@
         <v>5.784326570185039</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.4071084882620979</v>
+        <v>-0.407108488262109</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>5.198820768943513</v>
+        <v>5.304422962988214</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.2597869665196484</v>
+        <v>-0.5931869705467835</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.610829179590902</v>
+        <v>-1.998266388653674</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6.562325923593744</v>
+        <v>6.482106242215393</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.003924981999319</v>
+        <v>3.097645496427024</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.413392899682594</v>
+        <v>-6.021941279417199</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.785722700125529</v>
+        <v>6.883697485314115</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.9912278237906</v>
+        <v>1.971854967236986</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.171066506452267</v>
+        <v>-4.791556003903766</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>19.4104619297532</v>
+        <v>19.23728275275868</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.86979989298051</v>
+        <v>13.11368084061284</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.03107312632129</v>
+        <v>16.68569517871986</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14.39805957058338</v>
+        <v>14.08314954928335</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>10.69330466921094</v>
+        <v>10.82808622066153</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.69400382100236</v>
+        <v>3.529050963977906</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.79390342282905</v>
+        <v>13.77629883316342</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.360963324427029</v>
+        <v>9.303825164662054</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.82385940592245</v>
+        <v>3.71101804932479</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.1061388186370054</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.01467314351310099</v>
+        <v>-0.01467314351310134</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.192790386172515</v>
@@ -1839,7 +1839,7 @@
         <v>0.1060384043486869</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.007463121932746964</v>
+        <v>-0.007463121932747167</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2188423585701876</v>
+        <v>0.2432735388726355</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01271418979005394</v>
+        <v>-0.02808333214586573</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.07629370256053244</v>
+        <v>-0.1125981278488357</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1004708076441055</v>
+        <v>0.09871829084514444</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.0473081389602677</v>
+        <v>0.0479043020453532</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.08383414390887405</v>
+        <v>-0.09288189195665517</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1213237637689546</v>
+        <v>0.1222316398321555</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.03449783227757384</v>
+        <v>0.03259140475408408</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.0931768508517493</v>
+        <v>-0.08620984722784156</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.257590633229275</v>
+        <v>1.28343395419679</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.8248613438081219</v>
+        <v>0.8367550506798556</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.08817507608675</v>
+        <v>1.070044935976611</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.232747597448137</v>
+        <v>0.2277798699585585</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1762974659086815</v>
+        <v>0.1787218804543185</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.06060515821514507</v>
+        <v>0.05700581462981027</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2634955326485822</v>
+        <v>0.2630166862585858</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1762773016590176</v>
+        <v>0.1743675241869991</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.07131116522168592</v>
+        <v>0.06955734838243896</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>6.221435047215906</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.877010173386454</v>
+        <v>4.877010173386442</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>10.78421875327025</v>
@@ -1948,7 +1948,7 @@
         <v>7.773216945531264</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>8.428847209866557</v>
+        <v>8.428847209866547</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>7.411353371503468</v>
+        <v>7.458625207344715</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>6.801455479788104</v>
+        <v>6.915112245036426</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9.523689304525082</v>
+        <v>9.441805928104516</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9.440322458888371</v>
+        <v>9.194027094449854</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>3.710797636580733</v>
+        <v>3.938358276428952</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.652174003702267</v>
+        <v>2.743173321187998</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>8.892970670019684</v>
+        <v>8.962821179732632</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>6.084526002376214</v>
+        <v>6.083748634983033</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>6.681021799323703</v>
+        <v>6.713445983383728</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>12.07634044863648</v>
+        <v>12.17765078035761</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.60334684831483</v>
+        <v>11.79510988877265</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>14.46507894478832</v>
+        <v>14.58964982706937</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>13.77519503672416</v>
+        <v>13.87198288435212</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.635286831346646</v>
+        <v>8.390600439961263</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.050121780699968</v>
+        <v>7.2450923311227</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>12.44298165648671</v>
+        <v>12.49004180055006</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>9.496272030732754</v>
+        <v>9.594131019672595</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>10.13043000320394</v>
+        <v>10.22212244854166</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>0.1062310726057475</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08327500293679527</v>
+        <v>0.08327500293679507</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.2170105759133305</v>
@@ -2053,7 +2053,7 @@
         <v>0.1564202585873423</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.169613490707793</v>
+        <v>0.1696134907077928</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1766691686697284</v>
+        <v>0.1768471054486637</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1641624137755349</v>
+        <v>0.1640163240659895</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.2277229082081963</v>
+        <v>0.2218826215501766</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1578769408214309</v>
+        <v>0.1534562094981836</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.0618656929455722</v>
+        <v>0.06557746926803937</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04449382375926361</v>
+        <v>0.04620282124239576</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1754846282753864</v>
+        <v>0.1772788355456308</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1200853290038634</v>
+        <v>0.1190981512534631</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1315655583412675</v>
+        <v>0.1323883500680074</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3071164326568838</v>
+        <v>0.3114526423779849</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.2941715928064235</v>
+        <v>0.3009674551599346</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.3688949642898802</v>
+        <v>0.3711824368816891</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.240149648166285</v>
+        <v>0.2432293763369238</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.148973235661438</v>
+        <v>0.1459451974228105</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1227298936026985</v>
+        <v>0.1268438352799726</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2560077430444422</v>
+        <v>0.2559070428379847</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.1953791422681227</v>
+        <v>0.1945979446031261</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2078414796471653</v>
+        <v>0.2092444732246184</v>
       </c>
     </row>
     <row r="46">
